--- a/prep_data/2025_rushing_offense.xlsx
+++ b/prep_data/2025_rushing_offense.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D2" t="n">
-        <v>2051</v>
+        <v>2383</v>
       </c>
       <c r="E2" t="n">
         <v>5.06</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>157.8</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="D3" t="n">
-        <v>1984</v>
+        <v>2276</v>
       </c>
       <c r="E3" t="n">
         <v>4.89</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>152.6</v>
+        <v>151.7</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="D4" t="n">
-        <v>1858</v>
+        <v>2218</v>
       </c>
       <c r="E4" t="n">
-        <v>5.02</v>
+        <v>5.19</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.9</v>
+        <v>147.9</v>
       </c>
     </row>
     <row r="5">
@@ -580,239 +580,239 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="D5" t="n">
-        <v>1774</v>
+        <v>2009</v>
       </c>
       <c r="E5" t="n">
-        <v>4.87</v>
+        <v>4.7</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>136.5</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>1766</v>
+        <v>1894</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4.57</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>135.8</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>342</v>
+        <v>423</v>
       </c>
       <c r="D7" t="n">
-        <v>1702</v>
+        <v>1880</v>
       </c>
       <c r="E7" t="n">
-        <v>4.98</v>
+        <v>4.44</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>130.9</v>
+        <v>125.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>353</v>
+        <v>448</v>
       </c>
       <c r="D8" t="n">
-        <v>1669</v>
+        <v>1879</v>
       </c>
       <c r="E8" t="n">
-        <v>4.73</v>
+        <v>4.19</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>128.4</v>
+        <v>125.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="D9" t="n">
-        <v>1644</v>
+        <v>1870</v>
       </c>
       <c r="E9" t="n">
-        <v>4.94</v>
+        <v>4.46</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>126.5</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D10" t="n">
-        <v>1634</v>
+        <v>1863</v>
       </c>
       <c r="E10" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D11" t="n">
-        <v>1631</v>
+        <v>1862</v>
       </c>
       <c r="E11" t="n">
-        <v>4.41</v>
+        <v>4.75</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>125.5</v>
+        <v>124.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="D12" t="n">
-        <v>1611</v>
+        <v>1859</v>
       </c>
       <c r="E12" t="n">
-        <v>4.66</v>
+        <v>4.42</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -824,119 +824,119 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="D13" t="n">
-        <v>1607</v>
+        <v>1851</v>
       </c>
       <c r="E13" t="n">
-        <v>4.45</v>
+        <v>4.81</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D14" t="n">
-        <v>1605</v>
+        <v>1836</v>
       </c>
       <c r="E14" t="n">
-        <v>4.13</v>
+        <v>4.87</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>123.5</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="D15" t="n">
-        <v>1584</v>
+        <v>1830</v>
       </c>
       <c r="E15" t="n">
-        <v>4.59</v>
+        <v>4.16</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>121.8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D16" t="n">
-        <v>1582</v>
+        <v>1826</v>
       </c>
       <c r="E16" t="n">
-        <v>4.14</v>
+        <v>4.22</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -948,29 +948,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="D17" t="n">
-        <v>1553</v>
+        <v>1793</v>
       </c>
       <c r="E17" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>119.5</v>
@@ -979,94 +979,94 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="D18" t="n">
-        <v>1546</v>
+        <v>1782</v>
       </c>
       <c r="E18" t="n">
-        <v>4.39</v>
+        <v>4.56</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>118.9</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D19" t="n">
-        <v>1532</v>
+        <v>1774</v>
       </c>
       <c r="E19" t="n">
-        <v>3.98</v>
+        <v>4.51</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="D20" t="n">
-        <v>1523</v>
+        <v>1771</v>
       </c>
       <c r="E20" t="n">
-        <v>4.05</v>
+        <v>4.06</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>117.2</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="21">
@@ -1076,90 +1076,90 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>414</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F21" t="n">
         <v>13</v>
       </c>
-      <c r="C21" t="n">
-        <v>359</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1497</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
       <c r="G21" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>115.2</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="D22" t="n">
-        <v>1468</v>
+        <v>1753</v>
       </c>
       <c r="E22" t="n">
-        <v>3.9</v>
+        <v>4.06</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>112.9</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D23" t="n">
-        <v>1436</v>
+        <v>1646</v>
       </c>
       <c r="E23" t="n">
-        <v>4.08</v>
+        <v>4.24</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>110.5</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="24">
@@ -1169,276 +1169,276 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D24" t="n">
-        <v>1374</v>
+        <v>1600</v>
       </c>
       <c r="E24" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="F24" t="n">
         <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>105.7</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="D25" t="n">
-        <v>1355</v>
+        <v>1564</v>
       </c>
       <c r="E25" t="n">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D26" t="n">
-        <v>1281</v>
+        <v>1546</v>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>98.5</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="D27" t="n">
-        <v>1258</v>
+        <v>1525</v>
       </c>
       <c r="E27" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>96.8</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D28" t="n">
-        <v>1243</v>
+        <v>1462</v>
       </c>
       <c r="E28" t="n">
-        <v>3.82</v>
+        <v>4.33</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>95.59999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="D29" t="n">
-        <v>1227</v>
+        <v>1453</v>
       </c>
       <c r="E29" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="D30" t="n">
-        <v>1160</v>
+        <v>1404</v>
       </c>
       <c r="E30" t="n">
-        <v>3.87</v>
+        <v>4.24</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.2</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="D31" t="n">
-        <v>1124</v>
+        <v>1392</v>
       </c>
       <c r="E31" t="n">
-        <v>4.23</v>
+        <v>3.61</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>86.5</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="D32" t="n">
-        <v>1104</v>
+        <v>1329</v>
       </c>
       <c r="E32" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>84.90000000000001</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="D33" t="n">
-        <v>945</v>
+        <v>1136</v>
       </c>
       <c r="E33" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.7</v>
+        <v>75.7</v>
       </c>
     </row>
   </sheetData>
